--- a/Code/Results/Cases/Case_0_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_91/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.47604389336436</v>
+        <v>10.85093659812083</v>
       </c>
       <c r="D2">
-        <v>3.595407289534982</v>
+        <v>6.677977662816765</v>
       </c>
       <c r="E2">
-        <v>10.18983604147027</v>
+        <v>12.19200253495039</v>
       </c>
       <c r="F2">
-        <v>16.36945545354824</v>
+        <v>38.3689717592454</v>
       </c>
       <c r="G2">
-        <v>2.026294857010288</v>
+        <v>3.701182552676575</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.768515594970923</v>
+        <v>9.876820218374377</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.844632518739772</v>
+        <v>8.979474351254776</v>
       </c>
       <c r="M2">
-        <v>99.02676414731023</v>
+        <v>61.04346289703845</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.19128570339234</v>
+        <v>30.55881363894231</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.241395775015098</v>
+        <v>11.03237320566248</v>
       </c>
       <c r="D3">
-        <v>3.636806598777746</v>
+        <v>6.704475832012226</v>
       </c>
       <c r="E3">
-        <v>9.295484018134575</v>
+        <v>12.22349269785176</v>
       </c>
       <c r="F3">
-        <v>16.10388009789351</v>
+        <v>38.89944246664143</v>
       </c>
       <c r="G3">
-        <v>2.043533053489305</v>
+        <v>3.705739107834648</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.092861147446112</v>
+        <v>9.934950772748087</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.16775918369091</v>
+        <v>8.945956109344472</v>
       </c>
       <c r="M3">
-        <v>91.66544186550503</v>
+        <v>57.78014407461364</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.94347785801645</v>
+        <v>30.92669714220865</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.701124115307742</v>
+        <v>11.14787825913656</v>
       </c>
       <c r="D4">
-        <v>3.664973126102689</v>
+        <v>6.721779562582117</v>
       </c>
       <c r="E4">
-        <v>8.752972974227447</v>
+        <v>12.24749840947298</v>
       </c>
       <c r="F4">
-        <v>16.17220766005979</v>
+        <v>39.2428189464687</v>
       </c>
       <c r="G4">
-        <v>2.053944380890012</v>
+        <v>3.708655431829699</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.67717592191337</v>
+        <v>9.973786076077483</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.743510168387043</v>
+        <v>8.927282661367455</v>
       </c>
       <c r="M4">
-        <v>87.01995077391128</v>
+        <v>55.67108106093676</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.93796275040434</v>
+        <v>31.16589364671878</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.886655068826882</v>
+        <v>11.19598728441803</v>
       </c>
       <c r="D5">
-        <v>3.677075327978304</v>
+        <v>6.729091289936149</v>
       </c>
       <c r="E5">
-        <v>8.532484032821358</v>
+        <v>12.25843941746869</v>
       </c>
       <c r="F5">
-        <v>16.24890326523828</v>
+        <v>39.38715268302381</v>
       </c>
       <c r="G5">
-        <v>2.058164471725904</v>
+        <v>3.709873864391372</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.506743646927482</v>
+        <v>9.990393645488023</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.567845325279523</v>
+        <v>8.920155023320271</v>
       </c>
       <c r="M5">
-        <v>85.08987275515648</v>
+        <v>54.78554212256898</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.9671519996105</v>
+        <v>31.26668455027256</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.917375768189896</v>
+        <v>11.20403878801677</v>
       </c>
       <c r="D6">
-        <v>3.679121011977581</v>
+        <v>6.730321130532606</v>
       </c>
       <c r="E6">
-        <v>8.495881581737223</v>
+        <v>12.26032566906076</v>
       </c>
       <c r="F6">
-        <v>16.2643213442472</v>
+        <v>39.41138420818683</v>
       </c>
       <c r="G6">
-        <v>2.058864373340117</v>
+        <v>3.710078001975291</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.478360024774434</v>
+        <v>9.993198303835744</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.53849324793545</v>
+        <v>8.919000658831628</v>
       </c>
       <c r="M6">
-        <v>84.76701398874637</v>
+        <v>54.63693819973637</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.97374393687586</v>
+        <v>31.283620212254</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.703632544764281</v>
+        <v>11.14852285348616</v>
       </c>
       <c r="D7">
-        <v>3.665133886963656</v>
+        <v>6.721877116561968</v>
       </c>
       <c r="E7">
-        <v>8.749998209435971</v>
+        <v>12.24764129403718</v>
       </c>
       <c r="F7">
-        <v>16.17305637939223</v>
+        <v>39.24474769286181</v>
       </c>
       <c r="G7">
-        <v>2.054001361815339</v>
+        <v>3.708671742292358</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.674882574785592</v>
+        <v>9.974006896638327</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.741153048090315</v>
+        <v>8.927184581133936</v>
       </c>
       <c r="M7">
-        <v>86.99407717453387</v>
+        <v>55.6592433382386</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.93823611230738</v>
+        <v>31.16723956062055</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.742430943809973</v>
+        <v>10.91264957285821</v>
       </c>
       <c r="D8">
-        <v>3.609064110171794</v>
+        <v>6.686899896060862</v>
       </c>
       <c r="E8">
-        <v>9.879337164042001</v>
+        <v>12.20188128833297</v>
       </c>
       <c r="F8">
-        <v>16.2242445669558</v>
+        <v>38.54818858397164</v>
       </c>
       <c r="G8">
-        <v>2.032288710517692</v>
+        <v>3.702729156904813</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.535159099485747</v>
+        <v>9.896206117143443</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.612627803159034</v>
+        <v>8.967523018672404</v>
       </c>
       <c r="M8">
-        <v>96.5109619737995</v>
+        <v>59.94036112502465</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.07206840768674</v>
+        <v>30.68287687314393</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.455390475659102</v>
+        <v>10.48226083249066</v>
       </c>
       <c r="D9">
-        <v>3.525651062304617</v>
+        <v>6.626496044217394</v>
       </c>
       <c r="E9">
-        <v>12.21800581941908</v>
+        <v>12.1499313605829</v>
       </c>
       <c r="F9">
-        <v>19.49460210356245</v>
+        <v>37.32418599202199</v>
       </c>
       <c r="G9">
-        <v>1.987025504134655</v>
+        <v>3.692007756141586</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.267616041491424</v>
+        <v>9.768976445368319</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.29135795016383</v>
+        <v>9.061643151019661</v>
       </c>
       <c r="M9">
-        <v>114.5180555971233</v>
+        <v>67.4858687996865</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.92958374459116</v>
+        <v>29.8401896316674</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.173627173776918</v>
+        <v>10.18508723593381</v>
       </c>
       <c r="D10">
-        <v>3.732305351009448</v>
+        <v>6.58708728330239</v>
       </c>
       <c r="E10">
-        <v>14.17722063739838</v>
+        <v>12.13580782904986</v>
       </c>
       <c r="F10">
-        <v>24.09937474737418</v>
+        <v>36.51410599770928</v>
       </c>
       <c r="G10">
-        <v>1.949226973887407</v>
+        <v>3.684686038604067</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.68442225019519</v>
+        <v>9.691529834261377</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.59274793102862</v>
+        <v>9.139788009473426</v>
       </c>
       <c r="M10">
-        <v>128.1109766708389</v>
+        <v>72.49861629576989</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.59791878046399</v>
+        <v>29.28859118095484</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.08442785015712</v>
+        <v>10.05389865413492</v>
       </c>
       <c r="D11">
-        <v>3.947739306627265</v>
+        <v>6.57023458516864</v>
       </c>
       <c r="E11">
-        <v>15.19819262606744</v>
+        <v>12.1348226699101</v>
       </c>
       <c r="F11">
-        <v>26.69852647533616</v>
+        <v>36.16560255650532</v>
       </c>
       <c r="G11">
-        <v>1.929735185197811</v>
+        <v>3.681472890672149</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.41343352166967</v>
+        <v>9.659914088725476</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.23951232914599</v>
+        <v>9.177253611322687</v>
       </c>
       <c r="M11">
-        <v>134.7230781091104</v>
+        <v>74.66225675096003</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.58491990432476</v>
+        <v>29.05284556673216</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.460063009749729</v>
+        <v>10.004785115916</v>
       </c>
       <c r="D12">
-        <v>4.035259003343119</v>
+        <v>6.564007200709332</v>
       </c>
       <c r="E12">
-        <v>15.61726366413107</v>
+        <v>12.13524983604026</v>
       </c>
       <c r="F12">
-        <v>27.78791031741373</v>
+        <v>36.036572031167</v>
       </c>
       <c r="G12">
-        <v>1.921795364103345</v>
+        <v>3.680272822341397</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.71106566450772</v>
+        <v>9.648473939284145</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.49942900460748</v>
+        <v>9.191712946990114</v>
       </c>
       <c r="M12">
-        <v>137.3505570963663</v>
+        <v>75.46472367327593</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.40710109271727</v>
+        <v>28.96580620621261</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.377477198107782</v>
+        <v>10.01533764252862</v>
       </c>
       <c r="D13">
-        <v>4.016074195010625</v>
+        <v>6.565341515918844</v>
       </c>
       <c r="E13">
-        <v>15.52520616909973</v>
+        <v>12.13512196081215</v>
       </c>
       <c r="F13">
-        <v>27.54774174036015</v>
+        <v>36.06422923200173</v>
       </c>
       <c r="G13">
-        <v>1.923536086299986</v>
+        <v>3.680530540218135</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.64576077836871</v>
+        <v>9.650913916500963</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.44259794309015</v>
+        <v>9.188586837363751</v>
       </c>
       <c r="M13">
-        <v>136.7775692068473</v>
+        <v>75.29264861648062</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.22629585947558</v>
+        <v>28.98445157652805</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.114606124061281</v>
+        <v>10.04984679469015</v>
       </c>
       <c r="D14">
-        <v>3.954795988275626</v>
+        <v>6.569719161533179</v>
       </c>
       <c r="E14">
-        <v>15.23189604805643</v>
+        <v>12.13484167222908</v>
       </c>
       <c r="F14">
-        <v>26.78574414837881</v>
+        <v>36.15492783026011</v>
       </c>
       <c r="G14">
-        <v>1.929095191875519</v>
+        <v>3.681373827304423</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.43740347385236</v>
+        <v>9.658962165757069</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.26053132604295</v>
+        <v>9.178437761733798</v>
       </c>
       <c r="M14">
-        <v>134.9362106951363</v>
+        <v>74.72861433494394</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.65094673082197</v>
+        <v>29.04563974932888</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.958134964534321</v>
+        <v>10.07105788676726</v>
       </c>
       <c r="D15">
-        <v>3.918156471139677</v>
+        <v>6.57242069502562</v>
       </c>
       <c r="E15">
-        <v>15.05707274388552</v>
+        <v>12.13477473525004</v>
       </c>
       <c r="F15">
-        <v>26.33417194394195</v>
+        <v>36.2108682089673</v>
       </c>
       <c r="G15">
-        <v>1.932417511160334</v>
+        <v>3.681892530695141</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.31300455763157</v>
+        <v>9.663961611376621</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.15128015195067</v>
+        <v>9.172256459121865</v>
       </c>
       <c r="M15">
-        <v>133.8271697821328</v>
+        <v>74.38093013600401</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.30868493386152</v>
+        <v>29.08341152637281</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.117530616221083</v>
+        <v>10.19374029983226</v>
       </c>
       <c r="D16">
-        <v>3.718861667614254</v>
+        <v>6.588210255582047</v>
       </c>
       <c r="E16">
-        <v>14.11405224134731</v>
+        <v>12.13598320986268</v>
       </c>
       <c r="F16">
-        <v>23.94185243164259</v>
+        <v>36.53728937959742</v>
       </c>
       <c r="G16">
-        <v>1.950438857577453</v>
+        <v>3.684898371817855</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.63912563754435</v>
+        <v>9.69366977185406</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.55206953120138</v>
+        <v>9.137377803454275</v>
       </c>
       <c r="M16">
-        <v>127.6917297513653</v>
+        <v>72.35486180454296</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.47609586355476</v>
+        <v>29.30430732118314</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.640925025213904</v>
+        <v>10.27001871262121</v>
       </c>
       <c r="D17">
-        <v>3.603677530259465</v>
+        <v>6.598171737281564</v>
       </c>
       <c r="E17">
-        <v>13.57565084092885</v>
+        <v>12.13813059882677</v>
       </c>
       <c r="F17">
-        <v>22.61915508878095</v>
+        <v>36.74270558294314</v>
       </c>
       <c r="G17">
-        <v>1.960790869924857</v>
+        <v>3.686772307228887</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.25207929512467</v>
+        <v>9.712829171247733</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.2020509038014</v>
+        <v>9.116469266308162</v>
       </c>
       <c r="M17">
-        <v>124.0685927807829</v>
+        <v>71.08198128347144</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.44516956695911</v>
+        <v>29.44374174842028</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.377910794590287</v>
+        <v>10.31426889430066</v>
       </c>
       <c r="D18">
-        <v>3.539303734231296</v>
+        <v>6.604002466290604</v>
       </c>
       <c r="E18">
-        <v>13.27702852274621</v>
+        <v>12.1398766503611</v>
       </c>
       <c r="F18">
-        <v>21.90304204951878</v>
+        <v>36.86273450506147</v>
       </c>
       <c r="G18">
-        <v>1.966547931890774</v>
+        <v>3.687861222147885</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.03662508597249</v>
+        <v>9.72418865538549</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.0052855826457</v>
+        <v>9.104623910277777</v>
       </c>
       <c r="M18">
-        <v>122.0198113925153</v>
+        <v>70.33887322576025</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.88012158488983</v>
+        <v>29.52536631717533</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.290534734462811</v>
+        <v>10.32931627167602</v>
       </c>
       <c r="D19">
-        <v>3.517777959593739</v>
+        <v>6.605994028438119</v>
       </c>
       <c r="E19">
-        <v>13.17754961695022</v>
+        <v>12.14055503856893</v>
       </c>
       <c r="F19">
-        <v>21.66764436916599</v>
+        <v>36.90369510592012</v>
       </c>
       <c r="G19">
-        <v>1.968467822015659</v>
+        <v>3.688231819109154</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.964722468246325</v>
+        <v>9.728092729834447</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.93930817603511</v>
+        <v>9.100644420800508</v>
       </c>
       <c r="M19">
-        <v>121.3309574967911</v>
+        <v>70.08538664006385</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.69314246235915</v>
+        <v>29.55324638099002</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.690450716374496</v>
+        <v>10.26185981394673</v>
       </c>
       <c r="D20">
-        <v>3.615731559165308</v>
+        <v>6.597100853306756</v>
       </c>
       <c r="E20">
-        <v>13.63175281434848</v>
+        <v>12.13784899605838</v>
       </c>
       <c r="F20">
-        <v>22.75518104131567</v>
+        <v>36.72064377122845</v>
       </c>
       <c r="G20">
-        <v>1.959710421512426</v>
+        <v>3.686571678774505</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.29249301632614</v>
+        <v>9.710754396620571</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.23880440026574</v>
+        <v>9.118676342738476</v>
       </c>
       <c r="M20">
-        <v>124.4503383045502</v>
+        <v>71.21861874814857</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.55190824414253</v>
+        <v>29.42875082559502</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.190831208958575</v>
+        <v>10.03969537542136</v>
       </c>
       <c r="D21">
-        <v>3.972599475379854</v>
+        <v>6.568429152450214</v>
       </c>
       <c r="E21">
-        <v>15.31699582404868</v>
+        <v>12.1349021381421</v>
       </c>
       <c r="F21">
-        <v>27.00629107390994</v>
+        <v>36.12820712619158</v>
       </c>
       <c r="G21">
-        <v>1.927480326958298</v>
+        <v>3.681125682517354</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.49790056940982</v>
+        <v>9.656583659972872</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.31351269672888</v>
+        <v>9.181411441737023</v>
       </c>
       <c r="M21">
-        <v>135.4729360118176</v>
+        <v>74.89474279860987</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.81774621231891</v>
+        <v>29.02760630058198</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.367549327890915</v>
+        <v>9.897784832582039</v>
       </c>
       <c r="D22">
-        <v>4.244306603371167</v>
+        <v>6.550590260326573</v>
       </c>
       <c r="E22">
-        <v>16.62669698920005</v>
+        <v>12.13764890002095</v>
       </c>
       <c r="F22">
-        <v>30.44469845132269</v>
+        <v>35.75818643900286</v>
       </c>
       <c r="G22">
-        <v>1.902849082189227</v>
+        <v>3.677663532020582</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.42446173057209</v>
+        <v>9.624287225158067</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.11326544530778</v>
+        <v>9.223995630543861</v>
       </c>
       <c r="M22">
-        <v>143.4833756127236</v>
+        <v>77.19903728923386</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.39243105911484</v>
+        <v>28.77847277497163</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.71374608588884</v>
+        <v>9.973227836748574</v>
       </c>
       <c r="D23">
-        <v>4.094005900553756</v>
+        <v>6.560028928944016</v>
       </c>
       <c r="E23">
-        <v>15.89980336485171</v>
+        <v>12.13574938929181</v>
       </c>
       <c r="F23">
-        <v>28.5276407086343</v>
+        <v>35.95407993719009</v>
       </c>
       <c r="G23">
-        <v>1.916465524715429</v>
+        <v>3.679502534775061</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.91123568891388</v>
+        <v>9.64123593585335</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.67294306681032</v>
+        <v>9.201124054754537</v>
       </c>
       <c r="M23">
-        <v>139.0946373087108</v>
+        <v>75.97819953868591</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.9624940868524</v>
+        <v>28.91022977431058</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.6680266489939</v>
+        <v>10.26554721562984</v>
       </c>
       <c r="D24">
-        <v>3.61027634341352</v>
+        <v>6.597584676811518</v>
       </c>
       <c r="E24">
-        <v>13.60635596163329</v>
+        <v>12.13797471685872</v>
       </c>
       <c r="F24">
-        <v>22.69354759451366</v>
+        <v>36.73061190200202</v>
       </c>
       <c r="G24">
-        <v>1.960199483945051</v>
+        <v>3.686662346861592</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.27420054301234</v>
+        <v>9.71169133013565</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.22217466885136</v>
+        <v>9.117677977365812</v>
       </c>
       <c r="M24">
-        <v>124.2776483648436</v>
+        <v>71.15688017870772</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.50356702586294</v>
+        <v>29.4355236721529</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.893329899792988</v>
+        <v>10.59530757797503</v>
       </c>
       <c r="D25">
-        <v>3.544507093120115</v>
+        <v>6.641962726132007</v>
       </c>
       <c r="E25">
-        <v>11.55947130131225</v>
+        <v>12.15983628627385</v>
       </c>
       <c r="F25">
-        <v>18.13097779109714</v>
+        <v>37.63985457578025</v>
       </c>
       <c r="G25">
-        <v>1.999783997689158</v>
+        <v>3.69480971287985</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.785085212912158</v>
+        <v>9.800624709892075</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.833801505298787</v>
+        <v>9.034589161035884</v>
       </c>
       <c r="M25">
-        <v>109.6578808192101</v>
+        <v>65.53716511521169</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.77327216017993</v>
+        <v>30.05647015105012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_91/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.85093659812083</v>
+        <v>1.476043893364502</v>
       </c>
       <c r="D2">
-        <v>6.677977662816765</v>
+        <v>3.595407289535053</v>
       </c>
       <c r="E2">
-        <v>12.19200253495039</v>
+        <v>10.18983604147025</v>
       </c>
       <c r="F2">
-        <v>38.3689717592454</v>
+        <v>16.36945545354827</v>
       </c>
       <c r="G2">
-        <v>3.701182552676575</v>
+        <v>2.026294857010288</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.876820218374377</v>
+        <v>7.768515594970929</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.979474351254776</v>
+        <v>8.844632518739735</v>
       </c>
       <c r="M2">
-        <v>61.04346289703845</v>
+        <v>99.0267641473102</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.55881363894231</v>
+        <v>14.19128570339237</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.03237320566248</v>
+        <v>2.241395775015234</v>
       </c>
       <c r="D3">
-        <v>6.704475832012226</v>
+        <v>3.636806598777762</v>
       </c>
       <c r="E3">
-        <v>12.22349269785176</v>
+        <v>9.295484018134575</v>
       </c>
       <c r="F3">
-        <v>38.89944246664143</v>
+        <v>16.10388009789343</v>
       </c>
       <c r="G3">
-        <v>3.705739107834648</v>
+        <v>2.043533053489306</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.934950772748087</v>
+        <v>7.092861147446157</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.945956109344472</v>
+        <v>8.167759183690917</v>
       </c>
       <c r="M3">
-        <v>57.78014407461364</v>
+        <v>91.66544186550509</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.92669714220865</v>
+        <v>13.94347785801638</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.14787825913656</v>
+        <v>2.701124115307608</v>
       </c>
       <c r="D4">
-        <v>6.721779562582117</v>
+        <v>3.664973126102616</v>
       </c>
       <c r="E4">
-        <v>12.24749840947298</v>
+        <v>8.752972974227461</v>
       </c>
       <c r="F4">
-        <v>39.2428189464687</v>
+        <v>16.17220766006001</v>
       </c>
       <c r="G4">
-        <v>3.708655431829699</v>
+        <v>2.053944380890014</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.973786076077483</v>
+        <v>6.677175921913384</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.927282661367455</v>
+        <v>7.743510168387075</v>
       </c>
       <c r="M4">
-        <v>55.67108106093676</v>
+        <v>87.01995077391135</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.16589364671878</v>
+        <v>13.93796275040451</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.19598728441803</v>
+        <v>2.886655068827011</v>
       </c>
       <c r="D5">
-        <v>6.729091289936149</v>
+        <v>3.677075327978017</v>
       </c>
       <c r="E5">
-        <v>12.25843941746869</v>
+        <v>8.53248403282134</v>
       </c>
       <c r="F5">
-        <v>39.38715268302381</v>
+        <v>16.24890326523846</v>
       </c>
       <c r="G5">
-        <v>3.709873864391372</v>
+        <v>2.058164471725906</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.990393645488023</v>
+        <v>6.506743646927417</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.920155023320271</v>
+        <v>7.567845325279518</v>
       </c>
       <c r="M5">
-        <v>54.78554212256898</v>
+        <v>85.08987275515645</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.26668455027256</v>
+        <v>13.96715199961072</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.20403878801677</v>
+        <v>2.917375768190297</v>
       </c>
       <c r="D6">
-        <v>6.730321130532606</v>
+        <v>3.679121011977634</v>
       </c>
       <c r="E6">
-        <v>12.26032566906076</v>
+        <v>8.495881581737164</v>
       </c>
       <c r="F6">
-        <v>39.41138420818683</v>
+        <v>16.2643213442476</v>
       </c>
       <c r="G6">
-        <v>3.710078001975291</v>
+        <v>2.058864373340116</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.993198303835744</v>
+        <v>6.478360024774394</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.919000658831628</v>
+        <v>7.538493247935447</v>
       </c>
       <c r="M6">
-        <v>54.63693819973637</v>
+        <v>84.76701398874631</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.283620212254</v>
+        <v>13.97374393687619</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.14852285348616</v>
+        <v>2.703632544764279</v>
       </c>
       <c r="D7">
-        <v>6.721877116561968</v>
+        <v>3.665133886963656</v>
       </c>
       <c r="E7">
-        <v>12.24764129403718</v>
+        <v>8.749998209435962</v>
       </c>
       <c r="F7">
-        <v>39.24474769286181</v>
+        <v>16.17305637939213</v>
       </c>
       <c r="G7">
-        <v>3.708671742292358</v>
+        <v>2.054001361815339</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.974006896638327</v>
+        <v>6.674882574785531</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.927184581133936</v>
+        <v>7.741153048090318</v>
       </c>
       <c r="M7">
-        <v>55.6592433382386</v>
+        <v>86.99407717453396</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.16723956062055</v>
+        <v>13.9382361123073</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.91264957285821</v>
+        <v>1.742430943809976</v>
       </c>
       <c r="D8">
-        <v>6.686899896060862</v>
+        <v>3.609064110171799</v>
       </c>
       <c r="E8">
-        <v>12.20188128833297</v>
+        <v>9.879337164042006</v>
       </c>
       <c r="F8">
-        <v>38.54818858397164</v>
+        <v>16.22424456695585</v>
       </c>
       <c r="G8">
-        <v>3.702729156904813</v>
+        <v>2.032288710517826</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.896206117143443</v>
+        <v>7.535159099485747</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.967523018672404</v>
+        <v>8.612627803159006</v>
       </c>
       <c r="M8">
-        <v>59.94036112502465</v>
+        <v>96.51096197379945</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.68287687314393</v>
+        <v>14.07206840768677</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.48226083249066</v>
+        <v>2.455390475658971</v>
       </c>
       <c r="D9">
-        <v>6.626496044217394</v>
+        <v>3.525651062304582</v>
       </c>
       <c r="E9">
-        <v>12.1499313605829</v>
+        <v>12.21800581941913</v>
       </c>
       <c r="F9">
-        <v>37.32418599202199</v>
+        <v>19.49460210356253</v>
       </c>
       <c r="G9">
-        <v>3.692007756141586</v>
+        <v>1.987025504134788</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.768976445368319</v>
+        <v>9.267616041491461</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.061643151019661</v>
+        <v>10.29135795016389</v>
       </c>
       <c r="M9">
-        <v>67.4858687996865</v>
+        <v>114.5180555971235</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.8401896316674</v>
+        <v>16.92958374459125</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.18508723593381</v>
+        <v>4.173627173776919</v>
       </c>
       <c r="D10">
-        <v>6.58708728330239</v>
+        <v>3.73230535100946</v>
       </c>
       <c r="E10">
-        <v>12.13580782904986</v>
+        <v>14.17722063739841</v>
       </c>
       <c r="F10">
-        <v>36.51410599770928</v>
+        <v>24.09937474737408</v>
       </c>
       <c r="G10">
-        <v>3.684686038604067</v>
+        <v>1.949226973887142</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.691529834261377</v>
+        <v>10.68442225019524</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.139788009473426</v>
+        <v>11.59274793102863</v>
       </c>
       <c r="M10">
-        <v>72.49861629576989</v>
+        <v>128.110976670839</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>29.28859118095484</v>
+        <v>20.59791878046391</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.05389865413492</v>
+        <v>5.084427850157252</v>
       </c>
       <c r="D11">
-        <v>6.57023458516864</v>
+        <v>3.947739306627234</v>
       </c>
       <c r="E11">
-        <v>12.1348226699101</v>
+        <v>15.19819262606736</v>
       </c>
       <c r="F11">
-        <v>36.16560255650532</v>
+        <v>26.69852647533581</v>
       </c>
       <c r="G11">
-        <v>3.681472890672149</v>
+        <v>1.929735185197945</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.659914088725476</v>
+        <v>11.41343352166966</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.177253611322687</v>
+        <v>12.23951232914589</v>
       </c>
       <c r="M11">
-        <v>74.66225675096003</v>
+        <v>134.7230781091104</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>29.05284556673216</v>
+        <v>22.58491990432451</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.004785115916</v>
+        <v>5.460063009749867</v>
       </c>
       <c r="D12">
-        <v>6.564007200709332</v>
+        <v>4.035259003343189</v>
       </c>
       <c r="E12">
-        <v>12.13524983604026</v>
+        <v>15.61726366413112</v>
       </c>
       <c r="F12">
-        <v>36.036572031167</v>
+        <v>27.78791031741343</v>
       </c>
       <c r="G12">
-        <v>3.680272822341397</v>
+        <v>1.921795364103344</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.648473939284145</v>
+        <v>11.7110656645077</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.191712946990114</v>
+        <v>12.49942900460752</v>
       </c>
       <c r="M12">
-        <v>75.46472367327593</v>
+        <v>137.3505570963663</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.96580620621261</v>
+        <v>23.40710109271701</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.01533764252862</v>
+        <v>5.377477198107782</v>
       </c>
       <c r="D13">
-        <v>6.565341515918844</v>
+        <v>4.016074195010546</v>
       </c>
       <c r="E13">
-        <v>12.13512196081215</v>
+        <v>15.52520616909972</v>
       </c>
       <c r="F13">
-        <v>36.06422923200173</v>
+        <v>27.54774174036036</v>
       </c>
       <c r="G13">
-        <v>3.680530540218135</v>
+        <v>1.923536086299852</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.650913916500963</v>
+        <v>11.64576077836872</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.188586837363751</v>
+        <v>12.44259794309014</v>
       </c>
       <c r="M13">
-        <v>75.29264861648062</v>
+        <v>136.7775692068475</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.98445157652805</v>
+        <v>23.22629585947578</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.04984679469015</v>
+        <v>5.11460612406128</v>
       </c>
       <c r="D14">
-        <v>6.569719161533179</v>
+        <v>3.95479598827562</v>
       </c>
       <c r="E14">
-        <v>12.13484167222908</v>
+        <v>15.23189604805634</v>
       </c>
       <c r="F14">
-        <v>36.15492783026011</v>
+        <v>26.78574414837852</v>
       </c>
       <c r="G14">
-        <v>3.681373827304423</v>
+        <v>1.929095191875386</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.658962165757069</v>
+        <v>11.4374034738523</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.178437761733798</v>
+        <v>12.26053132604287</v>
       </c>
       <c r="M14">
-        <v>74.72861433494394</v>
+        <v>134.9362106951359</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>29.04563974932888</v>
+        <v>22.6509467308217</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.07105788676726</v>
+        <v>4.95813496453432</v>
       </c>
       <c r="D15">
-        <v>6.57242069502562</v>
+        <v>3.918156471139722</v>
       </c>
       <c r="E15">
-        <v>12.13477473525004</v>
+        <v>15.05707274388559</v>
       </c>
       <c r="F15">
-        <v>36.2108682089673</v>
+        <v>26.33417194394202</v>
       </c>
       <c r="G15">
-        <v>3.681892530695141</v>
+        <v>1.932417511160336</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.663961611376621</v>
+        <v>11.31300455763164</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.172256459121865</v>
+        <v>12.1512801519507</v>
       </c>
       <c r="M15">
-        <v>74.38093013600401</v>
+        <v>133.8271697821332</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>29.08341152637281</v>
+        <v>22.30868493386158</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.19374029983226</v>
+        <v>4.117530616221083</v>
       </c>
       <c r="D16">
-        <v>6.588210255582047</v>
+        <v>3.718861667614327</v>
       </c>
       <c r="E16">
-        <v>12.13598320986268</v>
+        <v>14.11405224134731</v>
       </c>
       <c r="F16">
-        <v>36.53728937959742</v>
+        <v>23.94185243164235</v>
       </c>
       <c r="G16">
-        <v>3.684898371817855</v>
+        <v>1.950438857577588</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.69366977185406</v>
+        <v>10.63912563754434</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.137377803454275</v>
+        <v>11.55206953120139</v>
       </c>
       <c r="M16">
-        <v>72.35486180454296</v>
+        <v>127.6917297513654</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.30430732118314</v>
+        <v>20.47609586355457</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.27001871262121</v>
+        <v>3.640925025214039</v>
       </c>
       <c r="D17">
-        <v>6.598171737281564</v>
+        <v>3.603677530259577</v>
       </c>
       <c r="E17">
-        <v>12.13813059882677</v>
+        <v>13.57565084092896</v>
       </c>
       <c r="F17">
-        <v>36.74270558294314</v>
+        <v>22.61915508878116</v>
       </c>
       <c r="G17">
-        <v>3.686772307228887</v>
+        <v>1.96079086992499</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.712829171247733</v>
+        <v>10.25207929512466</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.116469266308162</v>
+        <v>11.20205090380144</v>
       </c>
       <c r="M17">
-        <v>71.08198128347144</v>
+        <v>124.0685927807829</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>29.44374174842028</v>
+        <v>19.44516956695919</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.31426889430066</v>
+        <v>3.377910794590155</v>
       </c>
       <c r="D18">
-        <v>6.604002466290604</v>
+        <v>3.539303734231335</v>
       </c>
       <c r="E18">
-        <v>12.1398766503611</v>
+        <v>13.27702852274623</v>
       </c>
       <c r="F18">
-        <v>36.86273450506147</v>
+        <v>21.90304204951904</v>
       </c>
       <c r="G18">
-        <v>3.687861222147885</v>
+        <v>1.966547931891041</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.72418865538549</v>
+        <v>10.0366250859725</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.104623910277777</v>
+        <v>11.0052855826457</v>
       </c>
       <c r="M18">
-        <v>70.33887322576025</v>
+        <v>122.0198113925155</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>29.52536631717533</v>
+        <v>18.88012158489004</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.32931627167602</v>
+        <v>3.29053473446268</v>
       </c>
       <c r="D19">
-        <v>6.605994028438119</v>
+        <v>3.51777795959377</v>
       </c>
       <c r="E19">
-        <v>12.14055503856893</v>
+        <v>13.17754961695017</v>
       </c>
       <c r="F19">
-        <v>36.90369510592012</v>
+        <v>21.66764436916581</v>
       </c>
       <c r="G19">
-        <v>3.688231819109154</v>
+        <v>1.968467822015792</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.728092729834447</v>
+        <v>9.964722468246279</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.100644420800508</v>
+        <v>10.93930817603507</v>
       </c>
       <c r="M19">
-        <v>70.08538664006385</v>
+        <v>121.3309574967911</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>29.55324638099002</v>
+        <v>18.69314246235902</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.26185981394673</v>
+        <v>3.69045071637463</v>
       </c>
       <c r="D20">
-        <v>6.597100853306756</v>
+        <v>3.615731559165353</v>
       </c>
       <c r="E20">
-        <v>12.13784899605838</v>
+        <v>13.63175281434847</v>
       </c>
       <c r="F20">
-        <v>36.72064377122845</v>
+        <v>22.75518104131565</v>
       </c>
       <c r="G20">
-        <v>3.686571678774505</v>
+        <v>1.959710421512424</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.710754396620571</v>
+        <v>10.29249301632609</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.118676342738476</v>
+        <v>11.23880440026575</v>
       </c>
       <c r="M20">
-        <v>71.21861874814857</v>
+        <v>124.4503383045501</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>29.42875082559502</v>
+        <v>19.55190824414245</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.03969537542136</v>
+        <v>5.190831208958708</v>
       </c>
       <c r="D21">
-        <v>6.568429152450214</v>
+        <v>3.9725994753799</v>
       </c>
       <c r="E21">
-        <v>12.1349021381421</v>
+        <v>15.3169958240487</v>
       </c>
       <c r="F21">
-        <v>36.12820712619158</v>
+        <v>27.00629107391011</v>
       </c>
       <c r="G21">
-        <v>3.681125682517354</v>
+        <v>1.92748032695803</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.656583659972872</v>
+        <v>11.49790056940978</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.181411441737023</v>
+        <v>12.31351269672885</v>
       </c>
       <c r="M21">
-        <v>74.89474279860987</v>
+        <v>135.4729360118177</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>29.02760630058198</v>
+        <v>22.81774621231902</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.897784832582039</v>
+        <v>6.367549327890913</v>
       </c>
       <c r="D22">
-        <v>6.550590260326573</v>
+        <v>4.244306603371228</v>
       </c>
       <c r="E22">
-        <v>12.13764890002095</v>
+        <v>16.62669698920003</v>
       </c>
       <c r="F22">
-        <v>35.75818643900286</v>
+        <v>30.44469845132286</v>
       </c>
       <c r="G22">
-        <v>3.677663532020582</v>
+        <v>1.902849082189228</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.624287225158067</v>
+        <v>12.42446173057203</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.223995630543861</v>
+        <v>13.11326544530776</v>
       </c>
       <c r="M22">
-        <v>77.19903728923386</v>
+        <v>143.4833756127233</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>28.77847277497163</v>
+        <v>25.39243105911493</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.973227836748574</v>
+        <v>5.71374608588884</v>
       </c>
       <c r="D23">
-        <v>6.560028928944016</v>
+        <v>4.094005900553813</v>
       </c>
       <c r="E23">
-        <v>12.13574938929181</v>
+        <v>15.89980336485173</v>
       </c>
       <c r="F23">
-        <v>35.95407993719009</v>
+        <v>28.52764070863427</v>
       </c>
       <c r="G23">
-        <v>3.679502534775061</v>
+        <v>1.91646552471543</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.64123593585335</v>
+        <v>11.91123568891386</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.201124054754537</v>
+        <v>12.67294306681034</v>
       </c>
       <c r="M23">
-        <v>75.97819953868591</v>
+        <v>139.0946373087107</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>28.91022977431058</v>
+        <v>23.96249408685232</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.26554721562984</v>
+        <v>3.668026648993766</v>
       </c>
       <c r="D24">
-        <v>6.597584676811518</v>
+        <v>3.610276343413557</v>
       </c>
       <c r="E24">
-        <v>12.13797471685872</v>
+        <v>13.60635596163332</v>
       </c>
       <c r="F24">
-        <v>36.73061190200202</v>
+        <v>22.69354759451371</v>
       </c>
       <c r="G24">
-        <v>3.686662346861592</v>
+        <v>1.960199483944917</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.71169133013565</v>
+        <v>10.27420054301229</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.117677977365812</v>
+        <v>11.22217466885139</v>
       </c>
       <c r="M24">
-        <v>71.15688017870772</v>
+        <v>124.2776483648435</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>29.4355236721529</v>
+        <v>19.50356702586295</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.59530757797503</v>
+        <v>1.893329899793121</v>
       </c>
       <c r="D25">
-        <v>6.641962726132007</v>
+        <v>3.544507093120069</v>
       </c>
       <c r="E25">
-        <v>12.15983628627385</v>
+        <v>11.55947130131231</v>
       </c>
       <c r="F25">
-        <v>37.63985457578025</v>
+        <v>18.1309777910973</v>
       </c>
       <c r="G25">
-        <v>3.69480971287985</v>
+        <v>1.999783997689426</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.800624709892075</v>
+        <v>8.78508521291222</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.034589161035884</v>
+        <v>9.833801505298814</v>
       </c>
       <c r="M25">
-        <v>65.53716511521169</v>
+        <v>109.6578808192105</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.05647015105012</v>
+        <v>15.77327216018007</v>
       </c>
     </row>
   </sheetData>
